--- a/Task/Проверки 1.3 - 1.4 в.6.xlsx
+++ b/Task/Проверки 1.3 - 1.4 в.6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.3" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="208">
   <si>
     <t>Графа</t>
   </si>
@@ -1173,11 +1173,146 @@
     </r>
   </si>
   <si>
-    <t>Не пустое поле и не "-".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46,47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Код операции не может быть использован в форме 1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В графе 17 код ОКПО отчитывающейся организации. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 17  необходимо указать код ОКПО </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+    </r>
+  </si>
+  <si>
+    <t>В графе 17 код ОКПО НЕ отчитывающейся организации. Любой ОКПО, не совпадающей с ОКПО организации, подающей отчёт.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 17 необходимо указать ОКПО подрядной организации. </t>
     </r>
     <r>
       <rPr>
@@ -1188,16 +1323,284 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся организации, следует использовать код операции 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка сведений в графе 9. Должны быть цифры, длина значения поля: 8 или 14 символов, в т.ч. значимые 0. </t>
+  </si>
+  <si>
+    <t>«Код используется для предоставления сведений об ОРИ, произведенных в Российской Федерации»</t>
+  </si>
+  <si>
+    <r>
+      <t>84, 85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 86, 83</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка сведений в графе 9. Должно быть выбрано значение из справочника ОКСМ </t>
+  </si>
+  <si>
+    <t>«Код используется для предоставления сведений об ОРИ, произведенных за пределами Российской Федерации»</t>
+  </si>
+  <si>
+    <t>не проверяется (только соответствие с предыдущими операциями). Не пустое поле.</t>
+  </si>
+  <si>
+    <t>Не пустое поле. Если несколько - разделение через точку с запятой. Допускается значение "-"</t>
+  </si>
+  <si>
+    <t>При перечислении, в качестве разделителя использовать ;</t>
+  </si>
+  <si>
+    <t>«Формат ввода данных не соответствует приказу. При перечислении, радионуклиды должны быть разделены точкой с запятой.»</t>
+  </si>
+  <si>
+    <t>Сверка со справочником радионуклидов на предмет наличия.</t>
+  </si>
+  <si>
+    <t>«Формат ввода данных не соответствует приказу.  Радионуклид отсутствует в справочнике.»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если в графе 6 указан </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>один радионукли</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>д, то берется для него значение МЗА из таблицы и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если в графе 6 указано </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>несколько радионуклидов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, без указания процентной доли каждого радионуклида по активности, то из таблицы берется значение наименьшего МЗА, и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+    </r>
+  </si>
+  <si>
+    <t>Для равновесных радионуклидов (радионуклиды приведены в НП-067-16 приложении 2 и помечены &lt;*&gt;) считается по радионуклиду, который в основной таблице. Если ниже МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Код операции 11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>58</t>
+    </r>
+  </si>
+  <si>
+    <t>В графе 9 - ОКПО отчитывающейся организации</t>
+  </si>
+  <si>
+    <t>"Проверьте код ОКПО организации-изготовителя"</t>
+  </si>
+  <si>
+    <t>Цифры</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО организации изготовителя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>из ОКСМ, Прим.</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ЗРИ»</t>
+  </si>
+  <si>
+    <t>Дата выпуска &lt;= Дата операции</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выберите идентификатор, соотвествующий форме собственности ОРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>1, 2, 3, 4 в графе 12</t>
+  </si>
+  <si>
+    <t>5 в графе 12</t>
+  </si>
+  <si>
+    <t>6 в графе 12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Из возможных значений. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При коде операции 11 должено быть 9.</t>
+    </r>
+  </si>
+  <si>
+    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, из ОКСМ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46, 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">76, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>97, 98, 99</t>
     </r>
   </si>
   <si>
-    <t>Коды операций 25, 27, 28, 29, 35, 37, 38, 39, 54, 63, 64</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
-    </r>
+    <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39, 63, 64</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1207,7 +1610,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>32,</t>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
     </r>
     <r>
       <rPr>
@@ -1217,8 +1620,101 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-    </r>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46, 47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 65, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 67, 68, 71, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 97, 98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Минобороны, </t>
+    </r>
+  </si>
+  <si>
+    <t>Коды операций 21, 25, 27, 28, 29, 31, 32, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+  </si>
+  <si>
+    <t>выбор из ОКСМ, обязательно примечание. Значение не может быть "-"</t>
+  </si>
+  <si>
+    <t>«Значение не может быть "-"», «Формат ввода данных не соответствует приказу», «Необходимо добавить примечание»</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1505,7 +2001,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,9 +2347,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,1203 +2391,1213 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6"/>
+      <c r="G2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="G3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23">
+        <v>10</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="18">
-        <v>53</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23">
+        <v>15</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23">
+        <v>25</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>25</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
+        <v>37</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
+        <v>41</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <v>37</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
+        <v>53</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24">
+        <v>54</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23">
         <v>58</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23">
         <v>62</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23">
         <v>65</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25">
+        <v>81.88</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="5"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="5"/>
+      <c r="D23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>8</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="6"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>9</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>9</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="6"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>9</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>11</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="15">
-        <v>2</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="6"/>
+      <c r="D37" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>12</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="15">
-        <v>3</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" s="6"/>
+      <c r="D38" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>12</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="15">
-        <v>9</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15" t="s">
+      <c r="D39" s="22">
+        <v>2</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="G39" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>12</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D40" s="22">
+        <v>3</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>12</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D41" s="22">
+        <v>9</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>13</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>13</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>13</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>14</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="6"/>
+      <c r="D45" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>15</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="6"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>16</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>16</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>16</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>17</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="6"/>
+      <c r="D50" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>17</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="2"/>
+      <c r="D51" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>17</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="6"/>
+      <c r="D52" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="24"/>
     </row>
     <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>17</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D53" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>18</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="6">
+      <c r="D54" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>18</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" s="6">
+      <c r="D55" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>18</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H56" s="6">
+      <c r="D56" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3066,21 +3605,21 @@
       <c r="A57" s="2">
         <v>19</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" s="12" t="s">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3088,21 +3627,21 @@
       <c r="A58" s="2">
         <v>20</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="12" t="s">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3110,21 +3649,21 @@
       <c r="A59" s="2">
         <v>21</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="12" t="s">
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3138,9 +3677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Task/Проверки 1.3 - 1.4 в.6.xlsx
+++ b/Task/Проверки 1.3 - 1.4 в.6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="1.3" sheetId="1" r:id="rId1"/>
@@ -2347,9 +2347,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,6 +3668,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H59"/>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -3677,8 +3678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/Task/Проверки 1.3 - 1.4 в.6.xlsx
+++ b/Task/Проверки 1.3 - 1.4 в.6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.3" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     </r>
   </si>
   <si>
-    <t>Из возможных значений. При коде операции 11 должено быть 9.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">21, 22, 25, 27, 28, 29,41, 42, 43, 46, 47; 48; 53, </t>
     </r>
@@ -987,6 +984,779 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <t>Формат ввода не соответствует приказу. Радионуклид отсутствует в справочнике.</t>
+  </si>
+  <si>
+    <t>Сверка со справочником радионуклидов на наличие.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 35, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Код операции не может быть использован в форме 1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В графе 17 код ОКПО отчитывающейся организации. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 17  необходимо указать код ОКПО </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+    </r>
+  </si>
+  <si>
+    <t>В графе 17 код ОКПО НЕ отчитывающейся организации. Любой ОКПО, не совпадающей с ОКПО организации, подающей отчёт.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 17 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся организации, следует использовать код операции 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка сведений в графе 9. Должны быть цифры, длина значения поля: 8 или 14 символов, в т.ч. значимые 0. </t>
+  </si>
+  <si>
+    <t>«Код используется для предоставления сведений об ОРИ, произведенных в Российской Федерации»</t>
+  </si>
+  <si>
+    <r>
+      <t>84, 85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 86, 83</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка сведений в графе 9. Должно быть выбрано значение из справочника ОКСМ </t>
+  </si>
+  <si>
+    <t>«Код используется для предоставления сведений об ОРИ, произведенных за пределами Российской Федерации»</t>
+  </si>
+  <si>
+    <t>не проверяется (только соответствие с предыдущими операциями). Не пустое поле.</t>
+  </si>
+  <si>
+    <t>Не пустое поле. Если несколько - разделение через точку с запятой. Допускается значение "-"</t>
+  </si>
+  <si>
+    <t>При перечислении, в качестве разделителя использовать ;</t>
+  </si>
+  <si>
+    <t>«Формат ввода данных не соответствует приказу. При перечислении, радионуклиды должны быть разделены точкой с запятой.»</t>
+  </si>
+  <si>
+    <t>Сверка со справочником радионуклидов на предмет наличия.</t>
+  </si>
+  <si>
+    <t>«Формат ввода данных не соответствует приказу.  Радионуклид отсутствует в справочнике.»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если в графе 6 указан </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>один радионукли</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>д, то берется для него значение МЗА из таблицы и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если в графе 6 указано </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>несколько радионуклидов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, без указания процентной доли каждого радионуклида по активности, то из таблицы берется значение наименьшего МЗА, и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+    </r>
+  </si>
+  <si>
+    <t>Для равновесных радионуклидов (радионуклиды приведены в НП-067-16 приложении 2 и помечены &lt;*&gt;) считается по радионуклиду, который в основной таблице. Если ниже МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Код операции 11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>58</t>
+    </r>
+  </si>
+  <si>
+    <t>В графе 9 - ОКПО отчитывающейся организации</t>
+  </si>
+  <si>
+    <t>"Проверьте код ОКПО организации-изготовителя"</t>
+  </si>
+  <si>
+    <t>Цифры</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО организации изготовителя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>из ОКСМ, Прим.</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ЗРИ»</t>
+  </si>
+  <si>
+    <t>Дата выпуска &lt;= Дата операции</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выберите идентификатор, соотвествующий форме собственности ОРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>1, 2, 3, 4 в графе 12</t>
+  </si>
+  <si>
+    <t>5 в графе 12</t>
+  </si>
+  <si>
+    <t>6 в графе 12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Из возможных значений. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При коде операции 11 должено быть 9.</t>
+    </r>
+  </si>
+  <si>
+    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, из ОКСМ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46, 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">76, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39, 63, 64</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Минобороны, </t>
+    </r>
+  </si>
+  <si>
+    <t>Коды операций 21, 25, 27, 28, 29, 31, 32, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+  </si>
+  <si>
+    <t>выбор из ОКСМ, обязательно примечание. Значение не может быть "-"</t>
+  </si>
+  <si>
+    <t>«Значение не может быть "-"», «Формат ввода данных не соответствует приказу», «Необходимо добавить примечание»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39, 41, 42, 43, 48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46,47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Из возможных значений. При коде операции 10 должно быть 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При коде операции 11 должено быть 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46, 47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 65, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 67, 68, 71, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 97, 98, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63, 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций 25, 27, 28, 29, 35, 37, 38, 39,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 63, 64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
     </r>
     <r>
@@ -1008,236 +1778,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 97, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <t>Формат ввода не соответствует приказу. Радионуклид отсутствует в справочнике.</t>
-  </si>
-  <si>
-    <t>Сверка со справочником радионуклидов на наличие.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 25, 27, 28, 29, 35, 37, 38, 39, 54, 63, 64, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 35, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+      <t xml:space="preserve">, 97, 98, </t>
     </r>
     <r>
       <rPr>
@@ -1248,485 +1789,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>46,47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Код операции не может быть использован в форме 1.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">В графе 17 код ОКПО отчитывающейся организации. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 17  необходимо указать код ОКПО </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-    </r>
-  </si>
-  <si>
-    <t>В графе 17 код ОКПО НЕ отчитывающейся организации. Любой ОКПО, не совпадающей с ОКПО организации, подающей отчёт.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 17 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся организации, следует использовать код операции 53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка сведений в графе 9. Должны быть цифры, длина значения поля: 8 или 14 символов, в т.ч. значимые 0. </t>
-  </si>
-  <si>
-    <t>«Код используется для предоставления сведений об ОРИ, произведенных в Российской Федерации»</t>
-  </si>
-  <si>
-    <r>
-      <t>84, 85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 86, 83</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка сведений в графе 9. Должно быть выбрано значение из справочника ОКСМ </t>
-  </si>
-  <si>
-    <t>«Код используется для предоставления сведений об ОРИ, произведенных за пределами Российской Федерации»</t>
-  </si>
-  <si>
-    <t>не проверяется (только соответствие с предыдущими операциями). Не пустое поле.</t>
-  </si>
-  <si>
-    <t>Не пустое поле. Если несколько - разделение через точку с запятой. Допускается значение "-"</t>
-  </si>
-  <si>
-    <t>При перечислении, в качестве разделителя использовать ;</t>
-  </si>
-  <si>
-    <t>«Формат ввода данных не соответствует приказу. При перечислении, радионуклиды должны быть разделены точкой с запятой.»</t>
-  </si>
-  <si>
-    <t>Сверка со справочником радионуклидов на предмет наличия.</t>
-  </si>
-  <si>
-    <t>«Формат ввода данных не соответствует приказу.  Радионуклид отсутствует в справочнике.»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Если в графе 6 указан </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>один радионукли</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>д, то берется для него значение МЗА из таблицы и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Если в графе 6 указано </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>несколько радионуклидов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, без указания процентной доли каждого радионуклида по активности, то из таблицы берется значение наименьшего МЗА, и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-    </r>
-  </si>
-  <si>
-    <t>Для равновесных радионуклидов (радионуклиды приведены в НП-067-16 приложении 2 и помечены &lt;*&gt;) считается по радионуклиду, который в основной таблице. Если ниже МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Код операции 11, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>58</t>
-    </r>
-  </si>
-  <si>
-    <t>В графе 9 - ОКПО отчитывающейся организации</t>
-  </si>
-  <si>
-    <t>"Проверьте код ОКПО организации-изготовителя"</t>
-  </si>
-  <si>
-    <t>Цифры</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО организации изготовителя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>из ОКСМ, Прим.</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ЗРИ»</t>
-  </si>
-  <si>
-    <t>Дата выпуска &lt;= Дата операции</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Выберите идентификатор, соотвествующий форме собственности ОРИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>1, 2, 3, 4 в графе 12</t>
-  </si>
-  <si>
-    <t>5 в графе 12</t>
-  </si>
-  <si>
-    <t>6 в графе 12</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Из возможных значений. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При коде операции 11 должено быть 9.</t>
-    </r>
-  </si>
-  <si>
-    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, из ОКСМ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>46, 53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">76, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39, 63, 64</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>46, 47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 65, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 67, 68, 71, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 97, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Минобороны, </t>
-    </r>
-  </si>
-  <si>
-    <t>Коды операций 21, 25, 27, 28, 29, 31, 32, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-  </si>
-  <si>
-    <t>выбор из ОКСМ, обязательно примечание. Значение не может быть "-"</t>
-  </si>
-  <si>
-    <t>«Значение не может быть "-"», «Формат ввода данных не соответствует приказу», «Необходимо добавить примечание»</t>
+      <t>63, 64</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1944,10 +2028,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,49 +2040,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2010,34 +2094,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2347,9 +2431,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,8 +2492,8 @@
       <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>164</v>
+      <c r="G2" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -2423,15 +2507,15 @@
       <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>165</v>
+      <c r="D3" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>166</v>
+      <c r="G3" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -2472,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>13</v>
@@ -2516,7 +2600,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>19</v>
@@ -2557,13 +2641,13 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -2604,10 +2688,10 @@
         <v>41</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -2626,10 +2710,10 @@
         <v>53</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H12" s="22"/>
     </row>
@@ -2648,10 +2732,10 @@
         <v>54</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -2670,7 +2754,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>20</v>
@@ -2714,10 +2798,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -2736,10 +2820,10 @@
         <v>81.88</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H17" s="25"/>
     </row>
@@ -2755,13 +2839,13 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -2813,19 +2897,19 @@
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>123</v>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="H21" s="24"/>
     </row>
@@ -2834,7 +2918,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>37</v>
@@ -2842,7 +2926,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>41</v>
@@ -2864,10 +2948,10 @@
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -2875,19 +2959,19 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>123</v>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -2895,21 +2979,21 @@
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>122</v>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="H25" s="24"/>
     </row>
@@ -2917,21 +3001,21 @@
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>179</v>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="H26" s="24"/>
     </row>
@@ -2939,21 +3023,21 @@
       <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>181</v>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -2962,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>78</v>
@@ -2970,10 +3054,10 @@
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H28" s="23"/>
     </row>
@@ -2982,7 +3066,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>78</v>
@@ -2990,10 +3074,10 @@
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H29" s="23"/>
     </row>
@@ -3002,7 +3086,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>78</v>
@@ -3010,10 +3094,10 @@
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H30" s="23"/>
     </row>
@@ -3021,28 +3105,28 @@
       <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="30"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>8</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>78</v>
@@ -3055,7 +3139,7 @@
         <v>77</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H32" s="24"/>
     </row>
@@ -3071,13 +3155,13 @@
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H33" s="24"/>
     </row>
@@ -3093,13 +3177,13 @@
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>190</v>
+      <c r="G34" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="H34" s="24"/>
     </row>
@@ -3115,13 +3199,13 @@
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H35" s="24"/>
     </row>
@@ -3138,7 +3222,7 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>74</v>
@@ -3150,20 +3234,20 @@
         <v>11</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>124</v>
+      <c r="G37" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="H37" s="24"/>
     </row>
@@ -3184,8 +3268,8 @@
       <c r="F38" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>194</v>
+      <c r="G38" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="H38" s="24"/>
     </row>
@@ -3207,7 +3291,7 @@
         <v>51</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H39" s="22"/>
     </row>
@@ -3229,7 +3313,7 @@
         <v>51</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H40" s="22"/>
     </row>
@@ -3251,7 +3335,7 @@
         <v>51</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H41" s="22"/>
     </row>
@@ -3267,13 +3351,13 @@
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>126</v>
+      <c r="G42" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="H42" s="24"/>
     </row>
@@ -3289,13 +3373,13 @@
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>127</v>
+      <c r="G43" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="H43" s="24"/>
     </row>
@@ -3311,13 +3395,13 @@
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>50</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H44" s="24"/>
     </row>
@@ -3336,10 +3420,10 @@
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>129</v>
+        <v>203</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="H45" s="24"/>
     </row>
@@ -3356,10 +3440,10 @@
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>123</v>
+        <v>95</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="H46" s="24"/>
     </row>
@@ -3438,16 +3522,16 @@
         <v>37</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="31" t="s">
-        <v>130</v>
+      <c r="G50" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="H50" s="24"/>
     </row>
@@ -3455,23 +3539,23 @@
       <c r="A51" s="2">
         <v>17</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="32" t="s">
+      <c r="D51" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="H51" s="22"/>
     </row>
@@ -3486,7 +3570,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>65</v>
@@ -3494,8 +3578,8 @@
       <c r="F52" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="28" t="s">
-        <v>133</v>
+      <c r="G52" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="H52" s="24"/>
     </row>
@@ -3509,17 +3593,17 @@
       <c r="C53" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="34" t="s">
-        <v>202</v>
+      <c r="D53" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H53" s="24"/>
     </row>
@@ -3534,16 +3618,16 @@
         <v>37</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>134</v>
+        <v>99</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="H54" s="24">
         <v>1</v>
@@ -3560,16 +3644,16 @@
         <v>37</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>135</v>
+        <v>98</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="H55" s="24">
         <v>1</v>
@@ -3594,8 +3678,8 @@
       <c r="F56" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="28" t="s">
-        <v>136</v>
+      <c r="G56" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="H56" s="24">
         <v>1</v>
@@ -3613,11 +3697,11 @@
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>123</v>
+      <c r="F57" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="H57" s="24">
         <v>1</v>
@@ -3635,11 +3719,11 @@
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>123</v>
+      <c r="F58" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="H58" s="24">
         <v>1</v>
@@ -3657,11 +3741,11 @@
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>123</v>
+      <c r="F59" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="H59" s="24">
         <v>1</v>
@@ -3678,9 +3762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,7 +3839,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -3781,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -3825,10 +3909,10 @@
         <v>53</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -3847,10 +3931,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -3913,7 +3997,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>19</v>
@@ -3932,13 +4016,13 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -3979,10 +4063,10 @@
         <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -4001,7 +4085,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>20</v>
@@ -4045,10 +4129,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -4109,10 +4193,10 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -4121,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>37</v>
@@ -4132,7 +4216,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4141,20 +4225,20 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4173,10 +4257,10 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -4193,10 +4277,10 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -4213,10 +4297,10 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4235,10 +4319,10 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -4247,7 +4331,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>78</v>
@@ -4260,7 +4344,7 @@
         <v>77</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -4269,7 +4353,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>78</v>
@@ -4277,13 +4361,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -4291,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>78</v>
@@ -4299,13 +4383,13 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -4313,7 +4397,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>78</v>
@@ -4321,13 +4405,13 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4335,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>29</v>
@@ -4343,7 +4427,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>74</v>
@@ -4355,10 +4439,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -4366,7 +4450,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -4375,18 +4459,18 @@
         <v>10</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -4395,10 +4479,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -4406,7 +4490,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4415,18 +4499,18 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -4435,20 +4519,20 @@
         <v>12</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -4470,7 +4554,7 @@
         <v>76</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -4492,7 +4576,7 @@
         <v>51</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -4514,7 +4598,7 @@
         <v>51</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -4536,7 +4620,7 @@
         <v>51</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4552,13 +4636,13 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4574,13 +4658,13 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -4596,13 +4680,13 @@
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -4621,10 +4705,10 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -4641,10 +4725,10 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4723,16 +4807,16 @@
         <v>37</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -4747,16 +4831,16 @@
         <v>37</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="F49" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4771,7 +4855,7 @@
         <v>37</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>65</v>
@@ -4780,7 +4864,7 @@
         <v>66</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4795,7 +4879,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>67</v>
@@ -4808,7 +4892,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>19</v>
       </c>
@@ -4819,16 +4903,16 @@
         <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -4845,16 +4929,16 @@
         <v>37</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="G53" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
@@ -4880,7 +4964,7 @@
         <v>66</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -4899,10 +4983,10 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -4921,10 +5005,10 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -4943,10 +5027,10 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>

--- a/Task/Проверки 1.3 - 1.4 в.6.xlsx
+++ b/Task/Проверки 1.3 - 1.4 в.6.xlsx
@@ -126,9 +126,6 @@
     <t>Дата документа должна попадать в отчетный период.</t>
   </si>
   <si>
-    <t>«Дата акта инвентаризации не входит в отчетный период»</t>
-  </si>
-  <si>
     <t>Номер паспорта</t>
   </si>
   <si>
@@ -202,12 +199,6 @@
   </si>
   <si>
     <t>«Дата документа должна соответствовать дате операции»</t>
-  </si>
-  <si>
-    <t>Дата документа должна быть в границах периода предоставления отчета</t>
-  </si>
-  <si>
-    <t>«Дата документа выходит за границы периода»</t>
   </si>
   <si>
     <t>ОКПО поставщика/получателя</t>
@@ -1791,6 +1782,15 @@
       </rPr>
       <t>63, 64</t>
     </r>
+  </si>
+  <si>
+    <t>«Дата акта инвентаризации выходит за границы отчетного периода.»</t>
+  </si>
+  <si>
+    <t>Дата окончания ОП должны быть не позднее 10 рабочих дней после даты документа</t>
+  </si>
+  <si>
+    <t>«Дата окончания отчетного периода превышает дату акта инвентаризации более, чем на 10 рабочих дней.»</t>
   </si>
 </sst>
 </file>
@@ -2431,9 +2431,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -2505,17 +2505,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -2556,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>13</v>
@@ -2600,7 +2600,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>19</v>
@@ -2641,13 +2641,13 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -2688,10 +2688,10 @@
         <v>41</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -2710,10 +2710,10 @@
         <v>53</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H12" s="22"/>
     </row>
@@ -2732,10 +2732,10 @@
         <v>54</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -2754,7 +2754,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>20</v>
@@ -2798,10 +2798,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -2820,10 +2820,10 @@
         <v>81.88</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H17" s="25"/>
     </row>
@@ -2839,13 +2839,13 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="H20" s="24"/>
     </row>
@@ -2898,18 +2898,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H21" s="24"/>
     </row>
@@ -2918,18 +2918,18 @@
         <v>5</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -2938,20 +2938,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>40</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -2960,18 +2960,18 @@
         <v>5</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -2980,20 +2980,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25" s="24"/>
     </row>
@@ -3002,20 +3002,20 @@
         <v>6</v>
       </c>
       <c r="B26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H26" s="24"/>
     </row>
@@ -3024,20 +3024,20 @@
         <v>6</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -3046,18 +3046,18 @@
         <v>8</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H28" s="23"/>
     </row>
@@ -3066,18 +3066,18 @@
         <v>8</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H29" s="23"/>
     </row>
@@ -3086,18 +3086,18 @@
         <v>8</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H30" s="23"/>
     </row>
@@ -3106,18 +3106,18 @@
         <v>7</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H31" s="29"/>
     </row>
@@ -3126,20 +3126,20 @@
         <v>8</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H32" s="24"/>
     </row>
@@ -3148,20 +3148,20 @@
         <v>9</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H33" s="24"/>
     </row>
@@ -3170,20 +3170,20 @@
         <v>9</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H34" s="24"/>
     </row>
@@ -3192,20 +3192,20 @@
         <v>9</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H35" s="24"/>
     </row>
@@ -3214,7 +3214,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>29</v>
@@ -3222,10 +3222,10 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H36" s="24"/>
     </row>
@@ -3234,20 +3234,20 @@
         <v>11</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H37" s="24"/>
     </row>
@@ -3256,20 +3256,20 @@
         <v>12</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H38" s="24"/>
     </row>
@@ -3278,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>5</v>
@@ -3288,10 +3288,10 @@
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H39" s="22"/>
     </row>
@@ -3300,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>5</v>
@@ -3310,10 +3310,10 @@
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H40" s="22"/>
     </row>
@@ -3322,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>5</v>
@@ -3332,10 +3332,10 @@
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H41" s="22"/>
     </row>
@@ -3344,20 +3344,20 @@
         <v>13</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H42" s="24"/>
     </row>
@@ -3366,20 +3366,20 @@
         <v>13</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H43" s="24"/>
     </row>
@@ -3388,20 +3388,20 @@
         <v>13</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H44" s="24"/>
     </row>
@@ -3410,20 +3410,20 @@
         <v>14</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H45" s="24"/>
     </row>
@@ -3432,18 +3432,18 @@
         <v>15</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H46" s="24"/>
     </row>
@@ -3452,7 +3452,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>29</v>
@@ -3460,10 +3460,10 @@
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="H47" s="24"/>
     </row>
@@ -3472,29 +3472,29 @@
         <v>16</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="G48" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="24" t="s">
-        <v>60</v>
-      </c>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>16</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>29</v>
@@ -3504,10 +3504,10 @@
         <v>33</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="H49" s="24"/>
     </row>
@@ -3516,22 +3516,22 @@
         <v>17</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H50" s="24"/>
     </row>
@@ -3540,22 +3540,22 @@
         <v>17</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H51" s="22"/>
     </row>
@@ -3564,22 +3564,22 @@
         <v>17</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>66</v>
-      </c>
       <c r="G52" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H52" s="24"/>
     </row>
@@ -3588,22 +3588,22 @@
         <v>17</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>200</v>
-      </c>
       <c r="G53" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H53" s="24"/>
     </row>
@@ -3612,22 +3612,22 @@
         <v>18</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H54" s="24">
         <v>1</v>
@@ -3638,22 +3638,22 @@
         <v>18</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H55" s="24">
         <v>1</v>
@@ -3664,22 +3664,22 @@
         <v>18</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H56" s="24">
         <v>1</v>
@@ -3690,18 +3690,18 @@
         <v>19</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H57" s="24">
         <v>1</v>
@@ -3712,18 +3712,18 @@
         <v>20</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H58" s="24">
         <v>1</v>
@@ -3734,18 +3734,18 @@
         <v>21</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
       <c r="F59" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H59" s="24">
         <v>1</v>
@@ -3762,9 +3762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,17 +3836,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -3865,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -3909,10 +3909,10 @@
         <v>53</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -3931,10 +3931,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -3997,7 +3997,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>19</v>
@@ -4016,13 +4016,13 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -4063,10 +4063,10 @@
         <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -4085,7 +4085,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>20</v>
@@ -4129,10 +4129,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -4185,18 +4185,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -4205,18 +4205,18 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4225,20 +4225,20 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4247,20 +4247,20 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -4269,38 +4269,38 @@
         <v>7</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4309,20 +4309,20 @@
         <v>7</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -4331,20 +4331,20 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -4353,21 +4353,21 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -4375,21 +4375,21 @@
         <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -4397,21 +4397,21 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>29</v>
@@ -4427,10 +4427,10 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -4439,18 +4439,18 @@
         <v>10</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -4459,18 +4459,18 @@
         <v>10</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -4479,18 +4479,18 @@
         <v>11</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4499,18 +4499,18 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -4519,20 +4519,20 @@
         <v>12</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -4541,20 +4541,20 @@
         <v>13</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -4563,7 +4563,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>5</v>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -4585,7 +4585,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>5</v>
@@ -4595,10 +4595,10 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -4607,7 +4607,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>5</v>
@@ -4617,10 +4617,10 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4629,20 +4629,20 @@
         <v>14</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4651,20 +4651,20 @@
         <v>14</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -4673,20 +4673,20 @@
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -4695,20 +4695,20 @@
         <v>15</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -4717,18 +4717,18 @@
         <v>16</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4737,7 +4737,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>29</v>
@@ -4745,10 +4745,10 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4757,29 +4757,29 @@
         <v>17</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>17</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>29</v>
@@ -4789,10 +4789,10 @@
         <v>33</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -4801,22 +4801,22 @@
         <v>18</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -4825,22 +4825,22 @@
         <v>18</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4849,22 +4849,22 @@
         <v>18</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G50" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4873,22 +4873,22 @@
         <v>18</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -4897,22 +4897,22 @@
         <v>19</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -4923,22 +4923,22 @@
         <v>19</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
@@ -4949,22 +4949,22 @@
         <v>19</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -4975,18 +4975,18 @@
         <v>20</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -4997,18 +4997,18 @@
         <v>21</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -5019,18 +5019,18 @@
         <v>22</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
